--- a/results/I3_N5_M2_T45_C100_DepCentral_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676653</v>
+        <v>837.255728880667</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.35479209549518</v>
+        <v>25.77665327570422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.14332434604351</v>
+        <v>9.241189218116308</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.483672927198604</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1999.420000000002</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.33</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>38.03492348172502</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.73709266206896</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.27973517692068</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.47904373731215</v>
+        <v>41.73028543963929</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.72026482307932</v>
+        <v>35.51610579153741</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,155 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>128.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>128.3249999999989</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7649999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9849999999988</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999913</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>203.9899999999993</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>204.0149999999994</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>194.85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>208.0199999999994</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>202.55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>199.1600000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>194.8450000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>196.5550000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>196.0550000000006</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>199.6700000000007</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>203.9899999999993</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>204.0149999999994</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>194.85</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>208.0199999999994</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>202.55</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>199.1600000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>194.8450000000007</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>196.5550000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>196.0550000000006</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.6700000000007</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>103.9899999999993</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0149999999994</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>94.84999999999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>108.0199999999994</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>102.55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.16000000000065</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>94.84500000000068</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>96.55500000000066</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>96.05500000000063</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>99.67000000000067</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2220,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2404,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2415,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2426,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2437,10 +2242,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2448,78 +2253,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
